--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 22C/PRUEBA_TEMPERATURA_6_22C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 22C/PRUEBA_TEMPERATURA_6_22C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,115 +73,106 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 00:49:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:50:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:51:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:52:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:53:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:54:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:55:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:56:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:57:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:58:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:59:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:00:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:01:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:02:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:03:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:04:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:05:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:06:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:08:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:09:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:10:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:11:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:12:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:13:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:14:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:15:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:16:05</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:17:05</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:18:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:19:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:20:07</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:21:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:22:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:23:09</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:24:09</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:25:10</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:26:10</t>
+    <t>2023-12-12 02:17:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:18:44</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:19:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:20:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:21:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:22:48</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:23:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:24:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:25:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:26:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:27:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:28:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:29:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:30:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:31:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:32:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:34:00</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:35:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:36:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:37:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:38:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:39:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:40:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:41:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:42:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:43:10</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:44:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:45:12</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:46:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:47:14</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:48:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:49:16</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:50:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:51:18</t>
   </si>
 </sst>
 </file>
@@ -848,120 +839,111 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$38</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>26.590909090909001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.4597902097901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.541958041958001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>25.4108391608391</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.017482517482499</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>24.886363636363601</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.361888111888099</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23.968531468531399</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.968531468531399</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.444055944055901</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>23.7062937062937</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>23.444055944055901</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.919580419580399</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>23.444055944055901</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>23.181818181818102</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="30">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.919580419580399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.919580419580399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,34 +1202,34 @@
                   <c:v>23.0506993006993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.6573426573426</c:v>
+                  <c:v>23.312937062936999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.788461538461501</c:v>
+                  <c:v>23.181818181818102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.6573426573426</c:v>
+                  <c:v>23.181818181818102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.6573426573426</c:v>
+                  <c:v>22.919580419580399</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>23.444055944055901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.919580419580399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.919580419580399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,10 +1326,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22.812301335028572</c:v>
+                  <c:v>23.146058486967529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.812301335028572</c:v>
+                  <c:v>23.146058486967529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3118,17 +3100,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.4108391608391</v>
+        <v>26.590909090909001</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.1909722226846498E-2</v>
+        <v>1.3425925928459037E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3145,14 +3127,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.017482517482499</v>
+        <v>26.4597902097901</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.886363636363601</v>
+        <v>25.541958041958001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3186,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.361888111888099</v>
+        <v>25.4108391608391</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.968531468531399</v>
+        <v>24.886363636363601</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3220,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.968531468531399</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3237,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>23.7062937062937</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3254,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.444055944055901</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3271,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.444055944055901</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.181818181818102</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3305,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3322,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.0506993006993</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3339,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.444055944055901</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3356,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.181818181818102</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3373,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.0506993006993</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.181818181818102</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3407,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.181818181818102</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.919580419580399</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3441,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.919580419580399</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3458,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3475,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3526,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.788461538461501</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3543,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>23.0506993006993</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.6573426573426</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>23.0506993006993</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>22.788461538461501</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3628,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>22.6573426573426</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>22.6573426573426</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>23.0506993006993</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3679,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3696,58 +3678,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>22.788461538461501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>22</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>22.6573426573426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>22.788461538461501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>22.919580419580399</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3692,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,7 +3717,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:16:05</v>
+        <v>2023-12-12 02:41:08</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
@@ -3797,34 +3728,34 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>22.812301335028572</v>
+        <v>23.146058486967529</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:17:05</v>
+        <v>2023-12-12 02:42:09</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>22.6573426573426</v>
+        <v>23.312937062936999</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>22.812301335028572</v>
+        <v>23.146058486967529</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:18:06</v>
+        <v>2023-12-12 02:43:10</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3833,35 +3764,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:19:06</v>
+        <v>2023-12-12 02:44:11</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>22.6573426573426</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.15311386576605571</v>
+        <v>0.15614611786850843</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:20:07</v>
+        <v>2023-12-12 02:45:12</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:21:08</v>
+        <v>2023-12-12 02:46:13</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>23.0506993006993</v>
+        <v>23.444055944055901</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3870,36 +3801,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:22:08</v>
+        <v>2023-12-12 02:47:14</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>23.0506993006993</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:23:09</v>
+        <v>2023-12-12 02:48:15</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:24:09</v>
+        <v>2023-12-12 02:49:16</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3908,25 +3839,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:25:10</v>
+        <v>2023-12-12 02:50:17</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>22.6573426573426</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:26:10</v>
+        <v>2023-12-12 02:51:18</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>22.919580419580399</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
